--- a/AAII_Financials/Quarterly/BAOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAOS_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/BAOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="92">
   <si>
     <t>BAOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,31 +665,32 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,17 +709,20 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,17 +741,20 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,17 +773,20 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +821,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +851,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,37 +883,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +947,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,17 +960,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,17 +990,20 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1022,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,17 +1038,18 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,8 +1068,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1063,8 +1100,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,17 +1132,20 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1164,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1196,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,17 +1228,20 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,17 +1260,20 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1292,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1324,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1356,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1388,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,17 +1420,20 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,17 +1452,20 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1484,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,17 +1516,20 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,22 +1548,25 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1585,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1601,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,17 +1615,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E41" s="3">
         <v>12100</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,17 +1645,20 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E42" s="3">
         <v>3000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,17 +1677,20 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E43" s="3">
         <v>56600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1709,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,17 +1741,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E45" s="3">
         <v>26200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,17 +1773,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E46" s="3">
         <v>98000</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,17 +1805,20 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E47" s="3">
         <v>1500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1732,16 +1837,19 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+      <c r="E48" s="3">
+        <v>2600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1761,16 +1869,19 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+      <c r="E49" s="3">
+        <v>800</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1790,8 +1901,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1933,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,17 +1965,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1997,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,17 +2029,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E54" s="3">
         <v>105900</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2061,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2077,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,17 +2091,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E57" s="3">
         <v>16700</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,16 +2121,19 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2019,17 +2153,20 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E59" s="3">
         <v>8600</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,17 +2185,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E60" s="3">
         <v>25300</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,8 +2217,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2106,17 +2249,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2281,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2313,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2345,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,17 +2377,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E66" s="3">
         <v>26100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2409,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2425,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2455,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2487,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2519,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,17 +2551,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E72" s="3">
         <v>36400</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2583,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2615,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2647,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,17 +2679,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E76" s="3">
         <v>79800</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2711,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,22 +2743,25 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,17 +2780,20 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2812,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +2828,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,8 +2858,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2890,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2922,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2954,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2986,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,17 +3018,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27800</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3050,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,17 +3066,18 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,8 +3096,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3128,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,17 +3160,20 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5700</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3192,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3208,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3238,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3270,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3302,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,17 +3334,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>38500</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,17 +3366,20 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3149,17 +3398,20 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>5700</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3428,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="92">
   <si>
     <t>BAOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,35 +665,36 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,20 +713,23 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,20 +748,23 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -776,20 +783,23 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,8 +818,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,8 +835,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,8 +868,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,17 +903,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -912,14 +932,17 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,8 +973,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -961,20 +987,21 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,20 +1020,23 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1055,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,20 +1072,21 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1071,13 +1105,16 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-5900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1103,8 +1140,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1135,20 +1175,23 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,8 +1210,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1181,17 +1227,17 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1199,8 +1245,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,20 +1280,23 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,20 +1315,23 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1295,8 +1350,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1385,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,8 +1420,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1455,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,20 +1490,23 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1455,20 +1525,23 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1560,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,20 +1595,23 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,25 +1630,28 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1670,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1602,8 +1687,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,20 +1702,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12100</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,20 +1735,23 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E42" s="3">
         <v>2700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1680,20 +1770,23 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E43" s="3">
         <v>58100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>56600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1712,8 +1805,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1744,20 +1840,23 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E45" s="3">
         <v>20700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1776,20 +1875,23 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E46" s="3">
         <v>86200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>98000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,20 +1910,23 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E47" s="3">
         <v>1600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1840,19 +1945,22 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>2600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1872,19 +1980,22 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
         <v>800</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1904,8 +2015,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1936,8 +2050,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,20 +2085,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,8 +2120,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,20 +2155,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E54" s="3">
         <v>94100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>105900</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2190,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,8 +2207,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2092,20 +2222,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E57" s="3">
         <v>12200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16700</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2255,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2135,8 +2269,8 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2156,20 +2290,23 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>7300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,20 +2325,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E60" s="3">
         <v>19500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25300</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2220,8 +2360,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2252,20 +2395,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,8 +2430,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2465,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2500,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,20 +2535,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E66" s="3">
         <v>20000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2570,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,8 +2587,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2458,8 +2620,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2490,8 +2655,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2522,8 +2690,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2554,20 +2725,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E72" s="3">
         <v>29900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>36400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2760,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,8 +2795,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +2830,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2682,20 +2865,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E76" s="3">
         <v>74100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>79800</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2714,8 +2900,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2746,25 +2935,28 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2783,20 +2975,23 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,8 +3010,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,31 +3027,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2861,8 +3060,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2893,8 +3095,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2925,8 +3130,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2957,8 +3165,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,8 +3200,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3021,20 +3235,23 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27800</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3053,8 +3270,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3067,20 +3287,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3099,8 +3320,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,8 +3355,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3163,20 +3390,23 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5700</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,8 +3425,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3209,8 +3442,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3241,8 +3475,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3273,8 +3510,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3305,8 +3545,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3337,20 +3580,23 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>38500</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3369,20 +3615,23 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,20 +3650,23 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5700</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,6 +3683,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="92">
   <si>
     <t>BAOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,40 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,23 +717,26 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,23 +755,26 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,23 +793,26 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -821,8 +831,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +849,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +885,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,20 +923,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -935,14 +955,17 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,8 +999,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,23 +1014,24 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>7000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,23 +1050,26 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1088,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,23 +1106,24 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1108,17 +1142,20 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1180,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1178,23 +1218,26 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,13 +1256,16 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1227,8 +1273,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1285,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1248,8 +1294,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,23 +1332,26 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,23 +1370,26 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1408,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1446,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1484,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1522,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,23 +1560,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,23 +1598,26 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1636,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,23 +1674,26 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1633,28 +1712,31 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +1755,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1773,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,23 +1789,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,23 +1825,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E42" s="3">
         <v>2800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1773,23 +1863,26 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E43" s="3">
         <v>51100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>58100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>56600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,8 +1901,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1843,23 +1939,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E45" s="3">
         <v>12300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,23 +1977,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E46" s="3">
         <v>71100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>86200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>98000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1913,23 +2015,26 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E47" s="3">
         <v>1300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1948,22 +2053,25 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2600</v>
       </c>
       <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>2600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1983,22 +2091,25 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
         <v>700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>800</v>
       </c>
       <c r="F49" s="3">
         <v>800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2018,8 +2129,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2167,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,23 +2205,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,8 +2243,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,23 +2281,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E54" s="3">
         <v>77800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>94100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>105900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2319,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2337,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,23 +2353,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E57" s="3">
         <v>10400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,8 +2389,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2272,8 +2406,8 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2293,23 +2427,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2328,23 +2465,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E60" s="3">
         <v>13300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25300</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2503,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2398,23 +2541,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,8 +2579,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2617,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2655,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,23 +2693,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E66" s="3">
         <v>13600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2731,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2749,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2785,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2823,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2693,8 +2861,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,23 +2899,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E72" s="3">
         <v>23600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>29900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>36400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,8 +2937,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2975,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3013,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,23 +3051,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E76" s="3">
         <v>64200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>74100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>79800</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2903,8 +3089,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,28 +3127,31 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2978,23 +3170,26 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3013,8 +3208,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,17 +3226,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3253,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3063,8 +3262,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3300,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3338,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3376,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3414,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,23 +3452,26 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27800</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3490,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,31 +3508,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-1500</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3323,8 +3544,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3582,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,23 +3620,26 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E94" s="3">
         <v>1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5700</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3428,8 +3658,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,8 +3676,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3478,8 +3712,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3750,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +3788,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,23 +3826,26 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>38500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3618,23 +3864,26 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3653,23 +3902,26 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5700</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3686,6 +3938,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="92">
   <si>
     <t>BAOS</t>
   </si>
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>-3900</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="3">
         <v>1500</v>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5900</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="3">
         <v>-1100</v>
@@ -1020,8 +1020,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>19500</v>
       </c>
       <c r="E17" s="3">
         <v>7000</v>
@@ -1058,8 +1058,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-17500</v>
       </c>
       <c r="E18" s="3">
         <v>-6600</v>
@@ -1112,8 +1112,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1150,8 +1150,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-17400</v>
       </c>
       <c r="E21" s="3">
         <v>-5900</v>
@@ -1227,7 +1227,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30000</v>
+        <v>-17400</v>
       </c>
       <c r="E23" s="3">
         <v>-6300</v>
@@ -1264,8 +1264,8 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1340,8 +1340,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-17400</v>
       </c>
       <c r="E26" s="3">
         <v>-6300</v>
@@ -1378,8 +1378,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-17400</v>
       </c>
       <c r="E27" s="3">
         <v>-6300</v>
@@ -1568,8 +1568,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -1606,8 +1606,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-17400</v>
       </c>
       <c r="E33" s="3">
         <v>-6300</v>
@@ -1682,8 +1682,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-17400</v>
       </c>
       <c r="E35" s="3">
         <v>-6300</v>
@@ -1834,7 +1834,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1400</v>
+        <v>4500</v>
       </c>
       <c r="E42" s="3">
         <v>2800</v>
@@ -2398,7 +2398,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3178,8 +3178,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-17400</v>
       </c>
       <c r="E81" s="3">
         <v>-6300</v>
@@ -3629,7 +3629,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2100</v>
+        <v>-5500</v>
       </c>
       <c r="E94" s="3">
         <v>1700</v>
@@ -3910,8 +3910,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>1600</v>
       </c>
       <c r="E102" s="3">
         <v>-3800</v>

--- a/AAII_Financials/Quarterly/BAOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="92">
   <si>
     <t>BAOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,26 +721,29 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -758,26 +762,29 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,26 +803,29 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,8 +844,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,8 +863,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,8 +902,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,23 +943,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -958,14 +978,17 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,8 +1025,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,26 +1041,27 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>19500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,26 +1080,29 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1121,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,26 +1140,27 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,20 +1179,23 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1220,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1221,26 +1261,29 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1302,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1276,8 +1322,8 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1288,8 +1334,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1297,8 +1343,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,26 +1384,29 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1373,26 +1425,29 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1466,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1507,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1548,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1589,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,26 +1630,29 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1601,26 +1671,29 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1639,8 +1712,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,26 +1753,29 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,31 +1794,34 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1840,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1859,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,26 +1876,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>6700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1828,26 +1915,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E42" s="3">
         <v>4500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1866,26 +1956,29 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E43" s="3">
         <v>32100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>51100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>58100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>56600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1904,8 +1997,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1942,26 +2038,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>6900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,26 +2079,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E46" s="3">
         <v>50100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>71100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>86200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>98000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,26 +2120,29 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E47" s="3">
         <v>2300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,25 +2161,28 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2600</v>
       </c>
       <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>2600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2094,25 +2202,28 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>800</v>
       </c>
       <c r="G49" s="3">
         <v>800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2132,8 +2243,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2284,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,26 +2325,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2366,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,26 +2407,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E54" s="3">
         <v>58000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>77800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>94100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>105900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2448,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2467,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,26 +2484,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2392,25 +2523,28 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2430,26 +2564,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,26 +2605,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E60" s="3">
         <v>12600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25300</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2506,8 +2646,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2544,26 +2687,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2728,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2769,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2810,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,26 +2851,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E66" s="3">
         <v>12600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2892,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +2911,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +2950,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +2991,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2864,8 +3032,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,8 +3073,11 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2911,17 +3085,17 @@
         <v>6200</v>
       </c>
       <c r="E72" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F72" s="3">
         <v>23600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>29900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>36400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2940,8 +3114,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3155,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3196,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,26 +3237,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E76" s="3">
         <v>45400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>64200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>74100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>79800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3278,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,31 +3319,34 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3173,26 +3365,29 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3211,8 +3406,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,20 +3425,21 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3256,8 +3455,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3265,8 +3464,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3505,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3546,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3587,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3628,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,26 +3669,29 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>5600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27800</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3493,8 +3710,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,23 +3729,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -3535,8 +3756,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3547,8 +3768,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +3809,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,26 +3850,29 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5700</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3891,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,8 +3910,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3715,8 +3949,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +3990,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4031,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,26 +4072,29 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>38500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,26 +4113,29 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3905,26 +4154,29 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5700</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3941,6 +4193,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
